--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0405101384793125</v>
+        <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0643051395617496</v>
+        <v>-0.0537172564458189</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0167151373968755</v>
+        <v>-0.0201288487765744</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0751100159316077</v>
+        <v>-0.0641540725818796</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.115386315088904</v>
+        <v>-0.0927153470462684</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0348337167743117</v>
+        <v>-0.0355927981174907</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0194949907306191</v>
+        <v>-0.0190539735244188</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0564950502642359</v>
+        <v>-0.0451030853037338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0175050688029976</v>
+        <v>0.00699513825489626</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0291663715127749</v>
+        <v>-0.0286667838346521</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0773131093872651</v>
+        <v>-0.0626833376267647</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0189803663617153</v>
+        <v>0.00534976995746044</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0395525406328933</v>
+        <v>-0.0326947926612725</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0736720078149598</v>
+        <v>-0.0567668583978697</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00543307345082682</v>
+        <v>-0.00862272692467531</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.108903413635317</v>
+        <v>-0.0782088563428815</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.169526189303738</v>
+        <v>-0.120788612831146</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.048280637966897</v>
+        <v>-0.0356290998546174</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0239195803605916</v>
+        <v>-0.0154456456179612</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0743285947808915</v>
+        <v>-0.051294477145973</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0264894340597083</v>
+        <v>0.0204031859100507</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0206553271550592</v>
+        <v>-0.00563204873647634</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.050703709994465</v>
+        <v>-0.0555489715745713</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0920143643045833</v>
+        <v>0.0442848741016186</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0252544925943794</v>
+        <v>0.0104793786936969</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0598679690449487</v>
+        <v>-0.0487924649769307</v>
       </c>
       <c r="D10" t="n">
-        <v>0.110376954233708</v>
+        <v>0.0697512223643246</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -575,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.147742440649242</v>
+        <v>-0.125806567920452</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.312005963956249</v>
+        <v>-0.239492722039258</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0165210826577656</v>
+        <v>-0.0121204138016466</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0355159698112695</v>
+        <v>0.0209074406644628</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0825288215188815</v>
+        <v>-0.0628555343871072</v>
       </c>
       <c r="D12" t="n">
-        <v>0.153560761141421</v>
+        <v>0.104670415716033</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.122490686514435</v>
+        <v>0.0956099986782644</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0497734105134927</v>
+        <v>-0.0214985034786699</v>
       </c>
       <c r="D13" t="n">
-        <v>0.294754783542363</v>
+        <v>0.212718500835199</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0765248032469395</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.148482662821163</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.004566943672716</v>
+        <v>0.018689318870975</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.160817575241867</v>
+        <v>-0.0577340087736792</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.269722666965031</v>
+        <v>-0.136826906327932</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0519124835187019</v>
+        <v>0.021358888780574</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.01470989446434</v>
+        <v>0.00759950918211645</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.120618574570012</v>
+        <v>-0.0674108196475713</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0911987856413324</v>
+        <v>0.0826098380118042</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0175479648798547</v>
+        <v>-0.0726452073054339</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.229293198992948</v>
+        <v>-0.206385646323798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.194197269233238</v>
+        <v>0.0610952317129307</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.171200400434677</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.252797961937622</v>
+        <v>-0.168418320346958</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0896028389317323</v>
+        <v>-0.0503765986897887</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.173113791603596</v>
+        <v>-0.061671240730143</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.299692121117478</v>
+        <v>-0.155534106318584</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0465354620897142</v>
+        <v>0.0321916248582977</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.181785490692762</v>
+        <v>-0.17514965580578</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.322075254739009</v>
+        <v>-0.274213751884649</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0414957266465161</v>
+        <v>-0.07608555972691</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.157741004579829</v>
+        <v>-0.0958893145026702</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.322414726532477</v>
+        <v>-0.214731532354088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0069327173728185</v>
+        <v>0.0229529033487479</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0937905063089196</v>
+        <v>-0.0547199015664292</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.197428467420491</v>
+        <v>-0.129578069801682</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00984745480265203</v>
+        <v>0.020138266668824</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -779,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.100583499021523</v>
+        <v>-0.168611121441334</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.601827907593448</v>
+        <v>-0.471511786687693</v>
       </c>
       <c r="D23" t="n">
-        <v>0.400660909550402</v>
+        <v>0.134289543805024</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.122537652270278</v>
+        <v>-0.0676659566191313</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.246556842325837</v>
+        <v>-0.158005544427479</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00148153778528132</v>
+        <v>0.0226736311892161</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.00640019493411617</v>
+        <v>0.0177455830795082</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.192778475062936</v>
+        <v>-0.129674030460566</v>
       </c>
       <c r="D25" t="n">
-        <v>0.179978085194703</v>
+        <v>0.165165196619582</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00503032067922172</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.0896479045450339</v>
+        <v>-0.133166395952546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0997085459034773</v>
+        <v>0.00108491876264682</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.11657376940463</v>
+        <v>-0.17971290829258</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.28372413172569</v>
+        <v>-0.293573153842733</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0505765929164299</v>
+        <v>-0.0658526627424265</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0995112431623542</v>
+        <v>0.0328196643717729</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0589253023683497</v>
+        <v>-0.0790108771755982</v>
       </c>
       <c r="D28" t="n">
-        <v>0.257947788693058</v>
+        <v>0.144650205919144</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -881,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00908160694117175</v>
+        <v>-0.0716076027859697</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.152767582386756</v>
+        <v>-0.193612080054605</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1709307962691</v>
+        <v>0.0503968744826653</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0434352917667326</v>
+        <v>0.00775068673104141</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0399376672538099</v>
+        <v>-0.0503794672190532</v>
       </c>
       <c r="D30" t="n">
-        <v>0.126808250787275</v>
+        <v>0.0658808406811361</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0299786102272273</v>
+        <v>-0.0412933678280466</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.11498118182019</v>
+        <v>-0.138455527050746</v>
       </c>
       <c r="D31" t="n">
-        <v>0.174938402274645</v>
+        <v>0.0558687913946531</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.00499322353329274</v>
+        <v>0.0175324134006413</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.129657908311147</v>
+        <v>-0.0713857964743183</v>
       </c>
       <c r="D32" t="n">
-        <v>0.119671461244561</v>
+        <v>0.106450623275601</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.165856806778763</v>
+        <v>0.0621909453471425</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0169876630563522</v>
+        <v>-0.063422218363497</v>
       </c>
       <c r="D33" t="n">
-        <v>0.348701276613879</v>
+        <v>0.187804109057782</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0845158701934025</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.030081917545833</v>
+        <v>0.0119770053178827</v>
       </c>
       <c r="D34" t="n">
-        <v>0.199113657932638</v>
+        <v>0.176474662837814</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.223590902153173</v>
+        <v>0.0573924947248667</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0900596409863453</v>
+        <v>-0.16564996863585</v>
       </c>
       <c r="D35" t="n">
-        <v>0.537241445292692</v>
+        <v>0.280434958085584</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>0.115251730007208</v>
+        <v>0.141245606904932</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0511380356583299</v>
+        <v>0.0218038752875822</v>
       </c>
       <c r="D36" t="n">
-        <v>0.281641495672746</v>
+        <v>0.260687338522282</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.0264070731580139</v>
+        <v>0.0384163128584219</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.205785739391626</v>
+        <v>-0.0940087847960157</v>
       </c>
       <c r="D37" t="n">
-        <v>0.152971593075598</v>
+        <v>0.17084141051286</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00527322075229465</v>
+        <v>-0.00397790188562713</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0576177795886535</v>
+        <v>-0.0405513824024224</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0470713380840642</v>
+        <v>0.0325955786311682</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.00851577608941156</v>
+        <v>0.0189895836190502</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0977596674614283</v>
+        <v>-0.0566773880789962</v>
       </c>
       <c r="D39" t="n">
-        <v>0.114791219640251</v>
+        <v>0.0946565553170965</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.00841898188948175</v>
+        <v>-0.0143890178529501</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0869287851496601</v>
+        <v>-0.0680990966339215</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0700908213706966</v>
+        <v>0.0393210609280213</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.0163680097269427</v>
+        <v>-0.00915953352050666</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.110903447387534</v>
+        <v>-0.0759258302732102</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0781674279336487</v>
+        <v>0.0576067632321969</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0530237098185993</v>
+        <v>-0.0537680139261422</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0941783085364134</v>
+        <v>-0.0829294105584232</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0118691111007853</v>
+        <v>-0.0246066172938611</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0636853419666948</v>
+        <v>-0.0705082853828564</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.124850915447243</v>
+        <v>-0.114157787350691</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.00251976848614677</v>
+        <v>-0.0268587834150222</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0177177800847187</v>
+        <v>-0.0257550429507785</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0888013644147136</v>
+        <v>-0.0757982354205299</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0533658042452763</v>
+        <v>0.0242881495189729</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0873311556586756</v>
+        <v>-0.0654324848622896</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.17387355120618</v>
+        <v>-0.127001617914673</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.000788760111170725</v>
+        <v>-0.00386335180990642</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
@@ -425,10 +425,10 @@
         <v>-0.0369230526111967</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0537172564458189</v>
+        <v>-0.053717256445819</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765744</v>
+        <v>-0.0201288487765745</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0641540725818796</v>
+        <v>-0.0641540725818793</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927153470462684</v>
+        <v>-0.0927153470462681</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0355927981174907</v>
+        <v>-0.0355927981174905</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0190539735244188</v>
+        <v>-0.0190539735244186</v>
       </c>
       <c r="C4" t="n">
         <v>-0.0451030853037338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00699513825489626</v>
+        <v>0.00699513825489662</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0286667838346521</v>
+        <v>-0.0286667838346519</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0626833376267647</v>
+        <v>-0.0626833376267642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00534976995746044</v>
+        <v>0.00534976995746049</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0326947926612725</v>
+        <v>-0.0326947926612728</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0567668583978697</v>
+        <v>-0.0567668583978701</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00862272692467531</v>
+        <v>-0.00862272692467547</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0782088563428815</v>
+        <v>-0.0782088563428816</v>
       </c>
       <c r="C7" t="n">
         <v>-0.120788612831146</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0356290998546174</v>
+        <v>-0.0356290998546177</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0154456456179612</v>
+        <v>-0.015445645617961</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.051294477145973</v>
+        <v>-0.0512944771459726</v>
       </c>
       <c r="D8" t="n">
         <v>0.0204031859100507</v>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00563204873647634</v>
+        <v>-0.00563204873647637</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0555489715745713</v>
@@ -561,7 +561,7 @@
         <v>0.0104793786936969</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0487924649769307</v>
+        <v>-0.0487924649769308</v>
       </c>
       <c r="D10" t="n">
         <v>0.0697512223643246</v>
@@ -578,10 +578,10 @@
         <v>-0.125806567920452</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.239492722039258</v>
+        <v>-0.239492722039257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0121204138016466</v>
+        <v>-0.0121204138016463</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0209074406644628</v>
+        <v>0.0209074406644627</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0628555343871072</v>
+        <v>-0.0628555343871071</v>
       </c>
       <c r="D12" t="n">
-        <v>0.104670415716033</v>
+        <v>0.104670415716032</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0956099986782644</v>
+        <v>0.0956099986782646</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0214985034786699</v>
+        <v>-0.0214985034786698</v>
       </c>
       <c r="D13" t="n">
         <v>0.212718500835199</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0318036380677912</v>
+        <v>-0.0318036380677914</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0822965950065573</v>
+        <v>-0.0822965950065577</v>
       </c>
       <c r="D14" t="n">
         <v>0.018689318870975</v>
@@ -643,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0577340087736792</v>
+        <v>-0.0577340087736791</v>
       </c>
       <c r="C15" t="n">
         <v>-0.136826906327932</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00759950918211645</v>
+        <v>0.00759950918211625</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0674108196475713</v>
+        <v>-0.0674108196475715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0826098380118042</v>
+        <v>0.082609838011804</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0726452073054339</v>
+        <v>-0.0726452073054338</v>
       </c>
       <c r="C17" t="n">
         <v>-0.206385646323798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610952317129307</v>
+        <v>0.0610952317129308</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.061671240730143</v>
+        <v>-0.0616712407301431</v>
       </c>
       <c r="C19" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0321916248582977</v>
+        <v>0.0321916248582976</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -734,7 +734,7 @@
         <v>-0.274213751884649</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07608555972691</v>
+        <v>-0.0760855597269103</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -751,7 +751,7 @@
         <v>-0.214731532354088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0229529033487479</v>
+        <v>0.022952903348748</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0547199015664292</v>
+        <v>-0.0547199015664291</v>
       </c>
       <c r="C22" t="n">
         <v>-0.129578069801682</v>
       </c>
       <c r="D22" t="n">
-        <v>0.020138266668824</v>
+        <v>0.0201382666688242</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0676659566191313</v>
+        <v>-0.0676659566191316</v>
       </c>
       <c r="C24" t="n">
         <v>-0.158005544427479</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0226736311892161</v>
+        <v>0.0226736311892158</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0177455830795082</v>
+        <v>0.0177455830795081</v>
       </c>
       <c r="C25" t="n">
         <v>-0.129674030460566</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0660407385949495</v>
+        <v>-0.0660407385949494</v>
       </c>
       <c r="C26" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00108491876264682</v>
+        <v>0.00108491876264691</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,10 +847,10 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.17971290829258</v>
+        <v>-0.179712908292579</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.293573153842733</v>
+        <v>-0.293573153842732</v>
       </c>
       <c r="D27" t="n">
         <v>-0.0658526627424265</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0328196643717729</v>
+        <v>0.0328196643717728</v>
       </c>
       <c r="C28" t="n">
         <v>-0.0790108771755982</v>
@@ -887,7 +887,7 @@
         <v>-0.193612080054605</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0503968744826653</v>
+        <v>0.0503968744826654</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00775068673104141</v>
+        <v>0.00775068673104161</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0503794672190532</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0658808406811361</v>
+        <v>0.0658808406811363</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0412933678280466</v>
+        <v>-0.0412933678280467</v>
       </c>
       <c r="C31" t="n">
         <v>-0.138455527050746</v>
@@ -935,7 +935,7 @@
         <v>0.0175324134006413</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0713857964743183</v>
+        <v>-0.0713857964743182</v>
       </c>
       <c r="D32" t="n">
         <v>0.106450623275601</v>
@@ -949,10 +949,10 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0621909453471425</v>
+        <v>0.0621909453471427</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.063422218363497</v>
+        <v>-0.0634222183634968</v>
       </c>
       <c r="D33" t="n">
         <v>0.187804109057782</v>
@@ -966,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0942258340778483</v>
+        <v>0.0942258340778482</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0119770053178827</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D34" t="n">
         <v>0.176474662837814</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573924947248667</v>
+        <v>0.0573924947248664</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.16564996863585</v>
+        <v>-0.165649968635851</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280434958085584</v>
+        <v>0.280434958085583</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1017,10 +1017,10 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0384163128584219</v>
+        <v>0.038416312858422</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0940087847960157</v>
+        <v>-0.0940087847960156</v>
       </c>
       <c r="D37" t="n">
         <v>0.17084141051286</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00397790188562713</v>
+        <v>-0.00397790188562737</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0405513824024224</v>
+        <v>-0.0405513824024227</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0325955786311682</v>
+        <v>0.032595578631168</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0189895836190502</v>
+        <v>0.0189895836190499</v>
       </c>
       <c r="C39" t="n">
         <v>-0.0566773880789962</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0946565553170965</v>
+        <v>0.094656555317096</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0143890178529501</v>
+        <v>-0.0143890178529499</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0680990966339215</v>
+        <v>-0.0680990966339214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0393210609280213</v>
+        <v>0.0393210609280215</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1088,7 +1088,7 @@
         <v>-0.00915953352050666</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0759258302732102</v>
+        <v>-0.0759258302732103</v>
       </c>
       <c r="D41" t="n">
         <v>0.0576067632321969</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0537680139261422</v>
+        <v>-0.0537680139261416</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0829294105584232</v>
+        <v>-0.0829294105584222</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0246066172938611</v>
+        <v>-0.024606617293861</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0705082853828564</v>
+        <v>-0.0705082853828568</v>
       </c>
       <c r="C43" t="n">
         <v>-0.114157787350691</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0268587834150222</v>
+        <v>-0.0268587834150224</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1139,10 +1139,10 @@
         <v>-0.0257550429507785</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0757982354205299</v>
+        <v>-0.0757982354205298</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242881495189729</v>
+        <v>0.0242881495189728</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0654324848622896</v>
+        <v>-0.0654324848622897</v>
       </c>
       <c r="C45" t="n">
         <v>-0.127001617914673</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0369230526111967</v>
+        <v>-0.0368476975148486</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.053717256445819</v>
+        <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0201288487765745</v>
+        <v>-0.0200440693068842</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0641540725818793</v>
+        <v>-0.0642168111352815</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927153470462681</v>
+        <v>-0.0927943679581715</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0355927981174905</v>
+        <v>-0.0356392543123915</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0190539735244186</v>
+        <v>-0.0188413325911564</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0451030853037338</v>
+        <v>-0.0449029776314237</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00699513825489662</v>
+        <v>0.00722031244911083</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0286667838346519</v>
+        <v>-0.0286389031103483</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0626833376267642</v>
+        <v>-0.0626760078271849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00534976995746049</v>
+        <v>0.00539820160648838</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0326947926612728</v>
+        <v>-0.0326947926612726</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0567668583978701</v>
+        <v>-0.0567668583978698</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00862272692467547</v>
+        <v>-0.00862272692467542</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>-0.120788612831146</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0356290998546177</v>
+        <v>-0.0356290998546176</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.015445645617961</v>
+        <v>-0.0154456456179609</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0512944771459726</v>
+        <v>-0.0512944771459725</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0204031859100507</v>
+        <v>0.0204031859100508</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00563204873647637</v>
+        <v>-0.00563204873647633</v>
       </c>
       <c r="C9" t="n">
         <v>-0.0555489715745713</v>
@@ -564,7 +564,7 @@
         <v>-0.0487924649769308</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0697512223643246</v>
+        <v>0.0697512223643245</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -581,7 +581,7 @@
         <v>-0.239492722039257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0121204138016463</v>
+        <v>-0.0121204138016464</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0209074406644627</v>
+        <v>0.0209074406644628</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0628555343871071</v>
+        <v>-0.062855534387107</v>
       </c>
       <c r="D12" t="n">
-        <v>0.104670415716032</v>
+        <v>0.104670415716033</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0956099986782646</v>
+        <v>0.0956099986782645</v>
       </c>
       <c r="C13" t="n">
         <v>-0.0214985034786698</v>
@@ -626,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0318036380677914</v>
+        <v>-0.0318036380677913</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0822965950065577</v>
+        <v>-0.0822965950065574</v>
       </c>
       <c r="D14" t="n">
-        <v>0.018689318870975</v>
+        <v>0.0186893188709749</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0577340087736791</v>
+        <v>-0.0577340087736794</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.136826906327932</v>
+        <v>-0.136826906327933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021358888780574</v>
+        <v>0.0213588887805739</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00759950918211625</v>
+        <v>0.00759950918211628</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0674108196475715</v>
       </c>
       <c r="D16" t="n">
-        <v>0.082609838011804</v>
+        <v>0.0826098380118041</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -683,7 +683,7 @@
         <v>-0.206385646323798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610952317129308</v>
+        <v>0.0610952317129307</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.109397459518373</v>
+        <v>-0.109397459518374</v>
       </c>
       <c r="C18" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0503765986897887</v>
+        <v>-0.0503765986897891</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0616712407301431</v>
+        <v>-0.0616712407301433</v>
       </c>
       <c r="C19" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0321916248582976</v>
+        <v>0.0321916248582974</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.17514965580578</v>
+        <v>-0.175149655805779</v>
       </c>
       <c r="C20" t="n">
         <v>-0.274213751884649</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0760855597269103</v>
+        <v>-0.0760855597269096</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0958893145026702</v>
+        <v>-0.0958893145026703</v>
       </c>
       <c r="C21" t="n">
         <v>-0.214731532354088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.022952903348748</v>
+        <v>0.0229529033487478</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0676659566191316</v>
+        <v>-0.0676659566191315</v>
       </c>
       <c r="C24" t="n">
         <v>-0.158005544427479</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0226736311892158</v>
+        <v>0.0226736311892159</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0177455830795081</v>
+        <v>0.017745583079508</v>
       </c>
       <c r="C25" t="n">
         <v>-0.129674030460566</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0660407385949494</v>
+        <v>-0.0660407385949495</v>
       </c>
       <c r="C26" t="n">
         <v>-0.133166395952546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00108491876264691</v>
+        <v>0.00108491876264688</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -850,7 +850,7 @@
         <v>-0.179712908292579</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.293573153842732</v>
+        <v>-0.293573153842733</v>
       </c>
       <c r="D27" t="n">
         <v>-0.0658526627424265</v>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0328196643717728</v>
+        <v>0.0328196643717729</v>
       </c>
       <c r="C28" t="n">
         <v>-0.0790108771755982</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00775068673104161</v>
+        <v>0.00775068673104159</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0503794672190531</v>
+        <v>-0.050379467219053</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0658808406811363</v>
+        <v>0.0658808406811362</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,7 +915,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0412933678280467</v>
+        <v>-0.0412933678280466</v>
       </c>
       <c r="C31" t="n">
         <v>-0.138455527050746</v>
@@ -932,10 +932,10 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0175324134006413</v>
+        <v>0.0175324134006414</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0713857964743182</v>
+        <v>-0.071385796474318</v>
       </c>
       <c r="D32" t="n">
         <v>0.106450623275601</v>
@@ -949,10 +949,10 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0621909453471427</v>
+        <v>0.0621909453471426</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0634222183634968</v>
+        <v>-0.0634222183634967</v>
       </c>
       <c r="D33" t="n">
         <v>0.187804109057782</v>
@@ -969,7 +969,7 @@
         <v>0.0942258340778482</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0119770053178828</v>
+        <v>0.0119770053178825</v>
       </c>
       <c r="D34" t="n">
         <v>0.176474662837814</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573924947248664</v>
+        <v>0.0573924947248666</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.165649968635851</v>
+        <v>-0.16564996863585</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280434958085583</v>
+        <v>0.280434958085584</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1003,10 +1003,10 @@
         <v>0.141245606904932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0218038752875822</v>
+        <v>0.0218038752875824</v>
       </c>
       <c r="D36" t="n">
-        <v>0.260687338522282</v>
+        <v>0.260687338522281</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1020,7 +1020,7 @@
         <v>0.038416312858422</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0940087847960156</v>
+        <v>-0.0940087847960157</v>
       </c>
       <c r="D37" t="n">
         <v>0.17084141051286</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00397790188562737</v>
+        <v>-0.00403137556626488</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0405513824024227</v>
+        <v>-0.0406048603968052</v>
       </c>
       <c r="D38" t="n">
-        <v>0.032595578631168</v>
+        <v>0.0325421092642755</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0189895836190499</v>
+        <v>0.0189892625133635</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0566773880789962</v>
+        <v>-0.0566811084509713</v>
       </c>
       <c r="D39" t="n">
-        <v>0.094656555317096</v>
+        <v>0.0946596334776982</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0143890178529499</v>
+        <v>-0.0143980331442762</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0680990966339214</v>
+        <v>-0.0681074514224172</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0393210609280215</v>
+        <v>0.0393113851338649</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00915953352050666</v>
+        <v>-0.00934599257897999</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0759258302732103</v>
+        <v>-0.0761086030506213</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0576067632321969</v>
+        <v>0.0574166178926614</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0537680139261416</v>
+        <v>-0.0534948171234771</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0829294105584222</v>
+        <v>-0.082673481961128</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.024606617293861</v>
+        <v>-0.0243161522858262</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0705082853828568</v>
+        <v>-0.0706202185919235</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.114157787350691</v>
+        <v>-0.114295502723153</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0268587834150224</v>
+        <v>-0.0269449344606937</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0257550429507785</v>
+        <v>-0.0250966956662279</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0757982354205298</v>
+        <v>-0.0751723172335398</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0242881495189728</v>
+        <v>0.024978925901084</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0654324848622897</v>
+        <v>-0.0650696407039656</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.127001617914673</v>
+        <v>-0.126660788035846</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00386335180990642</v>
+        <v>-0.00347849337208485</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
@@ -428,7 +428,7 @@
         <v>-0.0536513257228129</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0200440693068842</v>
+        <v>-0.0200440693068843</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0642168111352815</v>
+        <v>-0.0642168111352817</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927943679581715</v>
+        <v>-0.0927943679581719</v>
       </c>
       <c r="D3" t="n">
         <v>-0.0356392543123915</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0188413325911564</v>
+        <v>-0.0188413325911565</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0449029776314237</v>
+        <v>-0.0449029776314238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00722031244911083</v>
+        <v>0.00722031244911089</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0286389031103483</v>
+        <v>-0.0286389031103481</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0626760078271849</v>
+        <v>-0.0626760078271846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00539820160648838</v>
+        <v>0.00539820160648851</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -493,10 +493,10 @@
         <v>-0.0326947926612726</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0567668583978698</v>
+        <v>-0.0567668583978699</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00862272692467542</v>
+        <v>-0.00862272692467536</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0782088563428816</v>
+        <v>-0.0782088563428821</v>
       </c>
       <c r="C7" t="n">
         <v>-0.120788612831146</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0356290998546176</v>
+        <v>-0.035629099854618</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -527,7 +527,7 @@
         <v>-0.0154456456179609</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0512944771459725</v>
+        <v>-0.0512944771459727</v>
       </c>
       <c r="D8" t="n">
         <v>0.0204031859100508</v>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00563204873647633</v>
+        <v>-0.00563204873647621</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0555489715745713</v>
+        <v>-0.0555489715745712</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0442848741016186</v>
+        <v>0.0442848741016188</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -581,7 +581,7 @@
         <v>-0.239492722039257</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0121204138016464</v>
+        <v>-0.0121204138016463</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0209074406644628</v>
+        <v>0.0209074406644629</v>
       </c>
       <c r="C12" t="n">
         <v>-0.062855534387107</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0956099986782645</v>
+        <v>0.0956099986782646</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0214985034786698</v>
+        <v>-0.0214985034786697</v>
       </c>
       <c r="D13" t="n">
         <v>0.212718500835199</v>
@@ -626,10 +626,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0318036380677913</v>
+        <v>-0.0318036380677912</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0822965950065574</v>
+        <v>-0.0822965950065573</v>
       </c>
       <c r="D14" t="n">
         <v>0.0186893188709749</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0577340087736794</v>
+        <v>-0.0577340087736793</v>
       </c>
       <c r="C15" t="n">
         <v>-0.136826906327933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0213588887805739</v>
+        <v>0.021358888780574</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00759950918211628</v>
+        <v>0.00759950918211662</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0674108196475715</v>
+        <v>-0.0674108196475712</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0826098380118041</v>
+        <v>0.0826098380118044</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.109397459518374</v>
+        <v>-0.109397459518373</v>
       </c>
       <c r="C18" t="n">
         <v>-0.168418320346958</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0503765986897891</v>
+        <v>-0.0503765986897889</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.0616712407301433</v>
+        <v>-0.061671240730143</v>
       </c>
       <c r="C19" t="n">
         <v>-0.155534106318584</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0321916248582974</v>
+        <v>0.0321916248582976</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -734,7 +734,7 @@
         <v>-0.274213751884649</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.0760855597269096</v>
+        <v>-0.07608555972691</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0958893145026703</v>
+        <v>-0.0958893145026701</v>
       </c>
       <c r="C21" t="n">
         <v>-0.214731532354088</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0229529033487478</v>
+        <v>0.0229529033487479</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0547199015664291</v>
+        <v>-0.0547199015664295</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.129578069801682</v>
+        <v>-0.129578069801683</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0201382666688242</v>
+        <v>0.0201382666688238</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -813,7 +813,7 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.017745583079508</v>
+        <v>0.0177455830795079</v>
       </c>
       <c r="C25" t="n">
         <v>-0.129674030460566</v>
@@ -836,7 +836,7 @@
         <v>-0.133166395952546</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00108491876264688</v>
+        <v>0.00108491876264687</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,7 +847,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.179712908292579</v>
+        <v>-0.17971290829258</v>
       </c>
       <c r="C27" t="n">
         <v>-0.293573153842733</v>
@@ -864,10 +864,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0328196643717729</v>
+        <v>0.0328196643717728</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0790108771755982</v>
+        <v>-0.0790108771755983</v>
       </c>
       <c r="D28" t="n">
         <v>0.144650205919144</v>
@@ -881,7 +881,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0716076027859697</v>
+        <v>-0.0716076027859696</v>
       </c>
       <c r="C29" t="n">
         <v>-0.193612080054605</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00775068673104159</v>
+        <v>0.00775068673104143</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.050379467219053</v>
+        <v>-0.0503794672190531</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0658808406811362</v>
+        <v>0.065880840681136</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -935,7 +935,7 @@
         <v>0.0175324134006414</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.071385796474318</v>
+        <v>-0.0713857964743181</v>
       </c>
       <c r="D32" t="n">
         <v>0.106450623275601</v>
@@ -952,7 +952,7 @@
         <v>0.0621909453471426</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0634222183634967</v>
+        <v>-0.0634222183634968</v>
       </c>
       <c r="D33" t="n">
         <v>0.187804109057782</v>
@@ -966,10 +966,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0942258340778482</v>
+        <v>0.0942258340778483</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0119770053178825</v>
+        <v>0.0119770053178828</v>
       </c>
       <c r="D34" t="n">
         <v>0.176474662837814</v>
@@ -989,7 +989,7 @@
         <v>-0.16564996863585</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280434958085584</v>
+        <v>0.280434958085583</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1003,7 +1003,7 @@
         <v>0.141245606904932</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0218038752875824</v>
+        <v>0.021803875287582</v>
       </c>
       <c r="D36" t="n">
         <v>0.260687338522281</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00403137556626488</v>
+        <v>-0.00403137556626472</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.0406048603968052</v>
+        <v>-0.040604860396805</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0325421092642755</v>
+        <v>0.0325421092642756</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1074,7 +1074,7 @@
         <v>-0.0681074514224172</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0393113851338649</v>
+        <v>0.0393113851338648</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00934599257897999</v>
+        <v>-0.00934599257897984</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0761086030506213</v>
+        <v>-0.0761086030506212</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0574166178926614</v>
+        <v>0.0574166178926615</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0534948171234771</v>
+        <v>-0.0534948171234775</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.082673481961128</v>
+        <v>-0.0826734819611284</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0243161522858262</v>
+        <v>-0.0243161522858266</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1136,10 +1136,10 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.0250966956662279</v>
+        <v>-0.025096695666228</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0751723172335398</v>
+        <v>-0.07517231723354</v>
       </c>
       <c r="D44" t="n">
         <v>0.024978925901084</v>
@@ -1159,7 +1159,7 @@
         <v>-0.126660788035846</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00347849337208485</v>
+        <v>-0.00347849337208496</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_vote_country.xlsx
@@ -422,13 +422,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0368476975148486</v>
+        <v>-0.0293406506834956</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0536513257228129</v>
+        <v>-0.0488062004766295</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0200440693068843</v>
+        <v>-0.00987510089036178</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -439,13 +439,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0642168111352817</v>
+        <v>-0.0689039829912472</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0927943679581719</v>
+        <v>-0.102436979780135</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0356392543123915</v>
+        <v>-0.0353709862023597</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0188413325911565</v>
+        <v>0.00241703369787156</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0449029776314238</v>
+        <v>-0.0274496873963965</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00722031244911089</v>
+        <v>0.0322837547921396</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -473,13 +473,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0286389031103481</v>
+        <v>-0.0281729896687774</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0626760078271846</v>
+        <v>-0.0677564883105723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00539820160648851</v>
+        <v>0.0114105089730176</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -490,13 +490,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0326947926612726</v>
+        <v>-0.029639115398728</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0567668583978699</v>
+        <v>-0.057547007576322</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.00862272692467536</v>
+        <v>-0.00173122322113394</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -507,13 +507,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.0782088563428821</v>
+        <v>-0.0844857123001329</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.120788612831146</v>
+        <v>-0.134298767115335</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.035629099854618</v>
+        <v>-0.0346726574849303</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0154456456179609</v>
+        <v>-0.00426938649582191</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0512944771459727</v>
+        <v>-0.045546789723833</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0204031859100508</v>
+        <v>0.0370080167321892</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00563204873647621</v>
+        <v>-0.00469594148333501</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0555489715745712</v>
+        <v>-0.062586297527127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0442848741016188</v>
+        <v>0.053194414560457</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -558,13 +558,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0104793786936969</v>
+        <v>0.0348790516782722</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0487924649769308</v>
+        <v>-0.03314090388337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0697512223643245</v>
+        <v>0.102899007239914</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -575,13 +575,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.125806567920452</v>
+        <v>-0.203452332273577</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.239492722039257</v>
+        <v>-0.341965592428956</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.0121204138016463</v>
+        <v>-0.0649390721181989</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -592,13 +592,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0209074406644629</v>
+        <v>0.0928929439002064</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.062855534387107</v>
+        <v>-0.00137456595493941</v>
       </c>
       <c r="D12" t="n">
-        <v>0.104670415716033</v>
+        <v>0.187160453755352</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -609,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0956099986782646</v>
+        <v>0.132160051822431</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0214985034786697</v>
+        <v>-0.00159365045498694</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212718500835199</v>
+        <v>0.265913754099849</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -626,13 +626,13 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.0318036380677912</v>
+        <v>-0.0350304991360799</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0822965950065573</v>
+        <v>-0.0943050292705048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0186893188709749</v>
+        <v>0.0242440309983449</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
@@ -643,13 +643,13 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.0577340087736793</v>
+        <v>-0.0379745549731156</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.136826906327933</v>
+        <v>-0.129791661670965</v>
       </c>
       <c r="D15" t="n">
-        <v>0.021358888780574</v>
+        <v>0.0538425517247335</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
@@ -660,13 +660,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00759950918211662</v>
+        <v>-0.0294849282340378</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0674108196475712</v>
+        <v>-0.117659868973547</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0826098380118044</v>
+        <v>0.0586900125054718</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -677,13 +677,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.0726452073054338</v>
+        <v>-0.0333920446599273</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.206385646323798</v>
+        <v>-0.18910286285223</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0610952317129307</v>
+        <v>0.122318773532375</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.109397459518373</v>
+        <v>-0.0869421006583331</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.168418320346958</v>
+        <v>-0.1560883371264</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0503765986897889</v>
+        <v>-0.0177958641902662</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -711,13 +711,13 @@
         <v>12</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.061671240730143</v>
+        <v>-0.0652846859847568</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.155534106318584</v>
+        <v>-0.176850111942382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0321916248582976</v>
+        <v>0.0462807399728687</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
@@ -728,13 +728,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.175149655805779</v>
+        <v>-0.142691312308851</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.274213751884649</v>
+        <v>-0.257274149121599</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07608555972691</v>
+        <v>-0.028108475496104</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
@@ -745,13 +745,13 @@
         <v>12</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0958893145026701</v>
+        <v>-0.039130881876801</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.214731532354088</v>
+        <v>-0.177867814661785</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0229529033487479</v>
+        <v>0.0996060509081829</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -762,13 +762,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.0547199015664295</v>
+        <v>-0.0588609742450841</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.129578069801683</v>
+        <v>-0.143736338359684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0201382666688238</v>
+        <v>0.0260143898695154</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
@@ -779,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.168611121441334</v>
+        <v>-0.104063058111145</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.471511786687693</v>
+        <v>-0.447672684184189</v>
       </c>
       <c r="D23" t="n">
-        <v>0.134289543805024</v>
+        <v>0.239546567961899</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
@@ -796,13 +796,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.0676659566191315</v>
+        <v>-0.0741003319532917</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.158005544427479</v>
+        <v>-0.177399969404416</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0226736311892159</v>
+        <v>0.0291993054978331</v>
       </c>
       <c r="E24" t="s">
         <v>7</v>
@@ -813,13 +813,13 @@
         <v>13</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0177455830795079</v>
+        <v>-0.00583695416665084</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.129674030460566</v>
+        <v>-0.174292850991719</v>
       </c>
       <c r="D25" t="n">
-        <v>0.165165196619582</v>
+        <v>0.162618942658417</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -830,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.0660407385949495</v>
+        <v>-0.0602713025075031</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.133166395952546</v>
+        <v>-0.13766608275368</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00108491876264687</v>
+        <v>0.0171234777386738</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
@@ -847,13 +847,13 @@
         <v>14</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.17971290829258</v>
+        <v>-0.20643643831223</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.293573153842733</v>
+        <v>-0.340207242507294</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0658526627424265</v>
+        <v>-0.0726656341171652</v>
       </c>
       <c r="E27" t="s">
         <v>6</v>
@@ -864,13 +864,13 @@
         <v>14</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0328196643717728</v>
+        <v>0.0793274111084461</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0790108771755983</v>
+        <v>-0.0478260164725222</v>
       </c>
       <c r="D28" t="n">
-        <v>0.144650205919144</v>
+        <v>0.206480838689414</v>
       </c>
       <c r="E28" t="s">
         <v>7</v>
@@ -881,13 +881,13 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.0716076027859696</v>
+        <v>-0.078721470213947</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.193612080054605</v>
+        <v>-0.219285051761633</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0503968744826654</v>
+        <v>0.0618421113337389</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
@@ -898,13 +898,13 @@
         <v>15</v>
       </c>
       <c r="B30" t="n">
-        <v>0.00775068673104143</v>
+        <v>-0.00159003208695692</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.0503794672190531</v>
+        <v>-0.0693187740560055</v>
       </c>
       <c r="D30" t="n">
-        <v>0.065880840681136</v>
+        <v>0.0661387098820917</v>
       </c>
       <c r="E30" t="s">
         <v>5</v>
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.0412933678280466</v>
+        <v>-0.0299443833785073</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.138455527050746</v>
+        <v>-0.141578833401984</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0558687913946531</v>
+        <v>0.0816900666449692</v>
       </c>
       <c r="E31" t="s">
         <v>6</v>
@@ -932,13 +932,13 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0175324134006414</v>
+        <v>0.01141166285419</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.0713857964743181</v>
+        <v>-0.0922750932135308</v>
       </c>
       <c r="D32" t="n">
-        <v>0.106450623275601</v>
+        <v>0.115098418921911</v>
       </c>
       <c r="E32" t="s">
         <v>7</v>
@@ -949,13 +949,13 @@
         <v>15</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0621909453471426</v>
+        <v>0.0134160686624137</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0634222183634968</v>
+        <v>-0.13742410663565</v>
       </c>
       <c r="D33" t="n">
-        <v>0.187804109057782</v>
+        <v>0.164256243960477</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
@@ -966,13 +966,13 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0942258340778483</v>
+        <v>0.02833972359754</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0119770053178828</v>
+        <v>-0.0665649259166873</v>
       </c>
       <c r="D34" t="n">
-        <v>0.176474662837814</v>
+        <v>0.123244373111767</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -983,13 +983,13 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0573924947248666</v>
+        <v>0.0473894316491347</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.16564996863585</v>
+        <v>-0.200808194015317</v>
       </c>
       <c r="D35" t="n">
-        <v>0.280434958085583</v>
+        <v>0.295587057313586</v>
       </c>
       <c r="E35" t="s">
         <v>6</v>
@@ -1000,13 +1000,13 @@
         <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>0.141245606904932</v>
+        <v>0.0788950055700484</v>
       </c>
       <c r="C36" t="n">
-        <v>0.021803875287582</v>
+        <v>-0.0622867570312075</v>
       </c>
       <c r="D36" t="n">
-        <v>0.260687338522281</v>
+        <v>0.220076768171304</v>
       </c>
       <c r="E36" t="s">
         <v>7</v>
@@ -1017,13 +1017,13 @@
         <v>16</v>
       </c>
       <c r="B37" t="n">
-        <v>0.038416312858422</v>
+        <v>-0.0478209939494626</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0940087847960157</v>
+        <v>-0.199149189726928</v>
       </c>
       <c r="D37" t="n">
-        <v>0.17084141051286</v>
+        <v>0.103507201828003</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.00403137556626472</v>
+        <v>0.014774592759857</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.040604860396805</v>
+        <v>-0.0272383349668874</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0325421092642756</v>
+        <v>0.0567875204866015</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -1051,13 +1051,13 @@
         <v>17</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0189892625133635</v>
+        <v>0.0420695951059939</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.0566811084509713</v>
+        <v>-0.0463885626679338</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0946596334776982</v>
+        <v>0.130527752879921</v>
       </c>
       <c r="E39" t="s">
         <v>6</v>
@@ -1068,13 +1068,13 @@
         <v>17</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.0143980331442762</v>
+        <v>0.0209117161394279</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0681074514224172</v>
+        <v>-0.04008621402023</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0393113851338648</v>
+        <v>0.0819096462990859</v>
       </c>
       <c r="E40" t="s">
         <v>7</v>
@@ -1085,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.00934599257897984</v>
+        <v>-0.0178346028682083</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.0761086030506212</v>
+        <v>-0.0948739818228298</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0574166178926615</v>
+        <v>0.0592047760864132</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
@@ -1102,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.0534948171234775</v>
+        <v>-0.0457743561799306</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0826734819611284</v>
+        <v>-0.0796204624900998</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0243161522858266</v>
+        <v>-0.0119282498697614</v>
       </c>
       <c r="E42" t="s">
         <v>5</v>
@@ -1119,13 +1119,13 @@
         <v>18</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.0706202185919235</v>
+        <v>-0.0799320939535274</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.114295502723153</v>
+        <v>-0.131229881210538</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.0269449344606937</v>
+        <v>-0.0286343066965171</v>
       </c>
       <c r="E43" t="s">
         <v>6</v>
@@ -1136,13 +1136,13 @@
         <v>18</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.025096695666228</v>
+        <v>0.00303866706730624</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.07517231723354</v>
+        <v>-0.0541862153285931</v>
       </c>
       <c r="D44" t="n">
-        <v>0.024978925901084</v>
+        <v>0.0602635494632056</v>
       </c>
       <c r="E44" t="s">
         <v>7</v>
@@ -1153,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.0650696407039656</v>
+        <v>-0.0595198470266168</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.126660788035846</v>
+        <v>-0.131732970124503</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.00347849337208496</v>
+        <v>0.0126932760712693</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
